--- a/Lab 2/rect_q6_stepDataHeaders.xlsx
+++ b/Lab 2/rect_q6_stepDataHeaders.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="6">
   <si>
     <t>TestNumber</t>
   </si>
@@ -27,6 +27,12 @@
   </si>
   <si>
     <t>k</t>
+  </si>
+  <si>
+    <t>wn</t>
+  </si>
+  <si>
+    <t>z</t>
   </si>
 </sst>
 </file>
@@ -47,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="33">
     <border>
       <left/>
       <right/>
@@ -61,11 +67,37 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -73,6 +105,32 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="29" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -82,27 +140,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F10"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="12.140625" customWidth="true"/>
     <col min="2" max="2" width="12.7109375" customWidth="true"/>
     <col min="3" max="3" width="6.7109375" customWidth="true"/>
     <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="5" max="5" width="11.7109375" customWidth="true"/>
+    <col min="6" max="6" width="13.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="31" t="s">
         <v>3</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="31" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
@@ -118,6 +184,12 @@
       <c r="D2">
         <v>675.70000000298023</v>
       </c>
+      <c r="E2">
+        <v>16.880319266114384</v>
+      </c>
+      <c r="F2">
+        <v>0.09887864977827121</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -132,6 +204,12 @@
       <c r="D3">
         <v>875.70000000298023</v>
       </c>
+      <c r="E3">
+        <v>19.216813344042748</v>
+      </c>
+      <c r="F3">
+        <v>0.08685639741452178</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -146,6 +224,12 @@
       <c r="D4">
         <v>675.70000000298023</v>
       </c>
+      <c r="E4">
+        <v>16.880319266114384</v>
+      </c>
+      <c r="F4">
+        <v>1.0357026433630381</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -160,6 +244,12 @@
       <c r="D5">
         <v>675.70000000298023</v>
       </c>
+      <c r="E5">
+        <v>24.188965995330364</v>
+      </c>
+      <c r="F5">
+        <v>0.070093229862322914</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -174,6 +264,12 @@
       <c r="D6">
         <v>675.70000000298023</v>
       </c>
+      <c r="E6">
+        <v>24.188965995330364</v>
+      </c>
+      <c r="F6">
+        <v>0.14168999172397889</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -183,10 +279,16 @@
         <v>1.1548333333339542</v>
       </c>
       <c r="C7">
-        <v>32.916000000201166</v>
+        <v>37.916000000201166</v>
       </c>
       <c r="D7">
         <v>675.70000000298023</v>
+      </c>
+      <c r="E7">
+        <v>24.188965995330364</v>
+      </c>
+      <c r="F7">
+        <v>0.67866570569458418</v>
       </c>
     </row>
     <row r="8">
@@ -197,10 +299,16 @@
         <v>0.66433333333407063</v>
       </c>
       <c r="C8">
-        <v>32.916000000201166</v>
+        <v>37.916000000201166</v>
       </c>
       <c r="D8">
         <v>475.70000000298023</v>
+      </c>
+      <c r="E8">
+        <v>26.759226384572685</v>
+      </c>
+      <c r="F8">
+        <v>1.0664313932938967</v>
       </c>
     </row>
     <row r="9">
@@ -216,6 +324,12 @@
       <c r="D9">
         <v>1175.6999999880791</v>
       </c>
+      <c r="E9">
+        <v>42.068326617591083</v>
+      </c>
+      <c r="F9">
+        <v>0.070060205423942534</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -229,6 +343,12 @@
       </c>
       <c r="D10">
         <v>1175.6999999880791</v>
+      </c>
+      <c r="E10">
+        <v>42.068326617591083</v>
+      </c>
+      <c r="F10">
+        <v>0.14162323445634684</v>
       </c>
     </row>
   </sheetData>
